--- a/data/s_vals/2022/liberatore_matthew.xlsx
+++ b/data/s_vals/2022/liberatore_matthew.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6717081370404667</v>
+        <v>0.1190320826869504</v>
       </c>
       <c r="C2" t="n">
-        <v>136.5189956898052</v>
+        <v>250555.8564151394</v>
       </c>
       <c r="D2" t="n">
-        <v>2.263954110880881</v>
+        <v>22.3905356188092</v>
       </c>
       <c r="E2" t="n">
-        <v>1.910992563374965</v>
+        <v>1133.036916526867</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>141.3656505011015</v>
+        <v>251711.4028993678</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6717081370404667</v>
+        <v>0.1190320826869504</v>
       </c>
       <c r="C3" t="n">
-        <v>9.434403144921294</v>
+        <v>117.745847958593</v>
       </c>
       <c r="D3" t="n">
-        <v>1.050893113504925</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E3" t="n">
-        <v>1.910992563374965</v>
+        <v>1133.036916526867</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>13.06799695884165</v>
+        <v>1254.439558216954</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/liberatore_matthew.xlsx
+++ b/data/s_vals/2022/liberatore_matthew.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>251711.4028993678</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +521,9 @@
       </c>
       <c r="G3" t="n">
         <v>1254.439558216954</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/liberatore_matthew.xlsx
+++ b/data/s_vals/2022/liberatore_matthew.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1190320826869504</v>
+        <v>0.1169995834814548</v>
       </c>
       <c r="C2" t="n">
-        <v>250555.8564151394</v>
+        <v>208501.5462402375</v>
       </c>
       <c r="D2" t="n">
-        <v>22.3905356188092</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E2" t="n">
-        <v>1133.036916526867</v>
+        <v>2797.565817734744</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>251711.4028993678</v>
+        <v>211317.9458549454</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1190320826869504</v>
+        <v>0.1169995834814548</v>
       </c>
       <c r="C3" t="n">
-        <v>117.745847958593</v>
+        <v>109.9114832445916</v>
       </c>
       <c r="D3" t="n">
-        <v>3.537761648806719</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E3" t="n">
-        <v>1133.036916526867</v>
+        <v>2797.565817734744</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1254.439558216954</v>
+        <v>2910.817669591895</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
